--- a/comparison/comparison_tables.xlsx
+++ b/comparison/comparison_tables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A412ABF-721C-C745-BF14-B3E1A35A9673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E916571C-4D95-144A-B28C-CC6F251817BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="6340" windowWidth="33980" windowHeight="17240" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Comparison Tables" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparison Tables mRNA)" sheetId="3" r:id="rId1"/>
+    <sheet name="Comparison Tables miRNA" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Node2Vec Parameters</t>
   </si>
@@ -640,10 +641,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABFF144-D7B4-5647-BADF-BDDFF9ACED1F}">
+  <dimension ref="C4:O21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="36" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="M5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="3:15" ht="36" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="M6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="3:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="M7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="3:15" ht="54" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="M8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="3:15" ht="72" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="H9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="M9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="3:15" ht="36" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="M10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="3:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="M11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="3:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="M12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="3:15" ht="54" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="M13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B7D9BC-218D-F84A-BC35-66E4739E78CA}">
   <dimension ref="C4:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>

--- a/comparison/comparison_tables.xlsx
+++ b/comparison/comparison_tables.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E916571C-4D95-144A-B28C-CC6F251817BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1572FC3-76E8-2845-B5FF-319C2774B997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="6340" windowWidth="33980" windowHeight="17240" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
+    <workbookView xWindow="4860" yWindow="6240" windowWidth="33980" windowHeight="17240" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Comparison Tables mRNA)" sheetId="3" r:id="rId1"/>
+    <sheet name="Comparison Tables mRNA" sheetId="3" r:id="rId1"/>
     <sheet name="Comparison Tables miRNA" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -644,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABFF144-D7B4-5647-BADF-BDDFF9ACED1F}">
   <dimension ref="C4:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B7D9BC-218D-F84A-BC35-66E4739E78CA}">
   <dimension ref="C4:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/comparison/comparison_tables.xlsx
+++ b/comparison/comparison_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1572FC3-76E8-2845-B5FF-319C2774B997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A76CC8C-6C3C-F54F-B7BE-24B29902DCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="6240" windowWidth="33980" windowHeight="17240" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
+    <workbookView xWindow="10240" yWindow="7080" windowWidth="33980" windowHeight="17240" activeTab="1" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison Tables mRNA" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>Node2Vec Parameters</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>0.63</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.15</t>
   </si>
 </sst>
 </file>
@@ -644,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABFF144-D7B4-5647-BADF-BDDFF9ACED1F}">
   <dimension ref="C4:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -890,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B7D9BC-218D-F84A-BC35-66E4739E78CA}">
   <dimension ref="C4:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,8 +1117,12 @@
       <c r="M11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="3:15" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
@@ -1127,8 +1140,12 @@
       <c r="M12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="3:15" ht="54" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">

--- a/comparison/comparison_tables.xlsx
+++ b/comparison/comparison_tables.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A76CC8C-6C3C-F54F-B7BE-24B29902DCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568B810C-98B9-2548-A553-016108BBEC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="7080" windowWidth="33980" windowHeight="17240" activeTab="1" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
+    <workbookView xWindow="9240" yWindow="9860" windowWidth="31500" windowHeight="17840" activeTab="1" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Comparison Tables mRNA" sheetId="3" r:id="rId1"/>
-    <sheet name="Comparison Tables miRNA" sheetId="1" r:id="rId2"/>
+    <sheet name="Comparison Tables miRNA" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparison Tables mRNA " sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Node2Vec Parameters</t>
   </si>
@@ -199,15 +199,6 @@
   </si>
   <si>
     <t>0.63</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.15</t>
   </si>
 </sst>
 </file>
@@ -650,11 +641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABFF144-D7B4-5647-BADF-BDDFF9ACED1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B7D9BC-218D-F84A-BC35-66E4739E78CA}">
   <dimension ref="C4:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,47 +694,79 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="M5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="3:15" ht="36" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="M6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="3:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" ht="72" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="M7" s="7" t="s">
         <v>42</v>
       </c>
@@ -754,13 +777,21 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="M8" s="7" t="s">
         <v>43</v>
       </c>
@@ -771,8 +802,12 @@
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H9" s="8" t="s">
         <v>52</v>
       </c>
@@ -781,30 +816,46 @@
       <c r="M9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="3:15" ht="36" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="M10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="3:15" ht="18" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -818,8 +869,12 @@
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -833,8 +888,12 @@
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -848,8 +907,12 @@
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -858,8 +921,12 @@
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -891,16 +958,17 @@
       <c r="D21" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B7D9BC-218D-F84A-BC35-66E4739E78CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EC5C4B-1855-F443-91B7-3FD86D606C3D}">
   <dimension ref="C4:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,79 +1017,47 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="M5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="3:15" ht="36" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="M6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="3:15" ht="72" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="M7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1032,21 +1068,13 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="H8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="M8" s="7" t="s">
         <v>43</v>
       </c>
@@ -1057,12 +1085,8 @@
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="H9" s="8" t="s">
         <v>52</v>
       </c>
@@ -1071,92 +1095,60 @@
       <c r="M9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="3:15" ht="36" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="M10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="3:15" ht="18" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="M11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="3:15" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="M12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="3:15" ht="54" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1170,12 +1162,8 @@
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1184,12 +1172,8 @@
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1221,7 +1205,6 @@
       <c r="D21" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/comparison/comparison_tables.xlsx
+++ b/comparison/comparison_tables.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568B810C-98B9-2548-A553-016108BBEC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694E76E9-7125-0D45-A2B8-226909D52456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="9860" windowWidth="31500" windowHeight="17840" activeTab="1" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
+    <workbookView xWindow="1140" yWindow="7800" windowWidth="31500" windowHeight="17840" activeTab="1" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison Tables miRNA" sheetId="1" r:id="rId1"/>
     <sheet name="Comparison Tables mRNA " sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>Node2Vec Parameters</t>
   </si>
@@ -199,6 +199,24 @@
   </si>
   <si>
     <t>0.63</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-0.48</t>
+  </si>
+  <si>
+    <t>-0.19</t>
   </si>
 </sst>
 </file>
@@ -294,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -308,6 +326,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +664,7 @@
   <dimension ref="C4:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,8 +881,12 @@
       <c r="M11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="3:15" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
@@ -881,8 +904,12 @@
       <c r="M12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="3:15" ht="54" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
@@ -967,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EC5C4B-1855-F443-91B7-3FD86D606C3D}">
   <dimension ref="C4:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1027,8 +1054,12 @@
       <c r="M5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="3:15" ht="36" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
@@ -1125,8 +1156,12 @@
       <c r="M11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="3:15" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
@@ -1140,8 +1175,12 @@
       <c r="M12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="3:15" ht="54" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">

--- a/comparison/comparison_tables.xlsx
+++ b/comparison/comparison_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694E76E9-7125-0D45-A2B8-226909D52456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27274396-1088-1944-B995-38483EFD4890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="7800" windowWidth="31500" windowHeight="17840" activeTab="1" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
+    <workbookView xWindow="-120" yWindow="7920" windowWidth="26020" windowHeight="17840" activeTab="1" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison Tables miRNA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>Node2Vec Parameters</t>
   </si>
@@ -165,12 +165,6 @@
     <t>STGCNBiLSTMMultiHeadAttention with MSE loss</t>
   </si>
   <si>
-    <t>STGCNBiLSTMultiHeadAttention without TAD boundary, A/B compartments, insulation scores with miRNA_enhanced_temporal_loss</t>
-  </si>
-  <si>
-    <t>STGCNBiLSTMultiHeadAttention without TAD boundary, A/B compartments, insulation scores with MSE</t>
-  </si>
-  <si>
     <t>0.43</t>
   </si>
   <si>
@@ -217,6 +211,69 @@
   </si>
   <si>
     <t>-0.19</t>
+  </si>
+  <si>
+    <t>p = 1.0 q= 1.0 walk_len =10 num_walks =25</t>
+  </si>
+  <si>
+    <t>p = 1.5 q= 1.5 walk_len =10 num_walks = 25</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>p = 2.0 q= 1.0 walk_len = 10 num_walks = 25</t>
+  </si>
+  <si>
+    <t>p = 1.0 q= 0.5 walk_len = 10 num_walks = 25</t>
+  </si>
+  <si>
+    <t>0.6244</t>
+  </si>
+  <si>
+    <t>0.5028</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>p = 1.0 q= 2.0 walk_len = 10 num_walks = 25</t>
+  </si>
+  <si>
+    <t>p = 1.0 q = 1.0 walk_len = 10 num_walks = 30</t>
+  </si>
+  <si>
+    <t>p = 1.0 q = 1.0 walk_len = 15 num_walks = 20</t>
+  </si>
+  <si>
+    <t>p = 1.0 q = 1.0 walk_len = 15 num_walks = 45</t>
+  </si>
+  <si>
+    <t>p = 1.0 q = 1.0 walk_len = 30 num_walks = 10</t>
+  </si>
+  <si>
+    <t>(embedding dimensions are fixed for this table which is 32)</t>
+  </si>
+  <si>
+    <t>16 dimensional Node2Vec</t>
+  </si>
+  <si>
+    <t>32 dimensional Node2Vec</t>
+  </si>
+  <si>
+    <t>0.6218</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>STGCNChebGraphConvProjectedGeneConnectedAttention with miRNA_enhanced_temporal_loss</t>
+  </si>
+  <si>
+    <t>STGCNChebGraphConvProjectedGeneConnectedAttention with MSE loss</t>
   </si>
 </sst>
 </file>
@@ -663,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B7D9BC-218D-F84A-BC35-66E4739E78CA}">
   <dimension ref="C4:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -761,13 +818,13 @@
         <v>41</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="72" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:15" ht="54" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
@@ -787,12 +844,16 @@
         <v>24</v>
       </c>
       <c r="M7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="3:15" ht="54" x14ac:dyDescent="0.2">
+      <c r="O7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="36" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
@@ -812,10 +873,14 @@
         <v>17</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="3:15" ht="72" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
@@ -828,21 +893,21 @@
         <v>23</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="M9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" ht="36" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" ht="18" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
@@ -856,16 +921,16 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="M10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" ht="18" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" ht="54" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
@@ -878,17 +943,13 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="M11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="M11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
@@ -901,17 +962,8 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="M12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" ht="54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -924,11 +976,6 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="M13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
@@ -992,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EC5C4B-1855-F443-91B7-3FD86D606C3D}">
-  <dimension ref="C4:O21"/>
+  <dimension ref="C4:O19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,187 +1087,208 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="36" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:15" ht="54" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="M5" s="7" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="3:15" ht="36" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="M6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="3:15" ht="72" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" ht="18" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="M7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="3:15" ht="54" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="72" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
       <c r="M8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="3:15" ht="72" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="54" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="H9" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="M9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="3:15" ht="36" x14ac:dyDescent="0.2">
+      <c r="J9" s="6"/>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="M10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="3:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="M11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="M12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" ht="54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="M13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="3:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="3:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
@@ -1234,14 +1302,6 @@
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/comparison/comparison_tables.xlsx
+++ b/comparison/comparison_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27274396-1088-1944-B995-38483EFD4890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720C00E2-B303-5C49-B6AB-D042EC4997E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="7920" windowWidth="26020" windowHeight="17840" activeTab="1" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
+    <workbookView xWindow="0" yWindow="7920" windowWidth="26020" windowHeight="17840" activeTab="1" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison Tables miRNA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="90">
   <si>
     <t>Node2Vec Parameters</t>
   </si>
@@ -274,6 +274,39 @@
   </si>
   <si>
     <t>STGCNChebGraphConvProjectedGeneConnectedAttention with MSE loss</t>
+  </si>
+  <si>
+    <t>TemporalNode2Vec Results</t>
+  </si>
+  <si>
+    <t>p = 1.0 q= 1.0 walk_len =25 num_walks =75</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.28</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EC5C4B-1855-F443-91B7-3FD86D606C3D}">
-  <dimension ref="C4:O19"/>
+  <dimension ref="C4:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1291,17 +1324,227 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" ht="54" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" ht="36" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/comparison/comparison_tables.xlsx
+++ b/comparison/comparison_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720C00E2-B303-5C49-B6AB-D042EC4997E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6BBB33-C257-D347-BEF7-8057EC09B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7920" windowWidth="26020" windowHeight="17840" activeTab="1" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
+    <workbookView xWindow="27560" yWindow="6420" windowWidth="26020" windowHeight="17840" activeTab="1" xr2:uid="{960A1F96-E8F3-A04D-9C7E-C46B95EF2BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison Tables miRNA" sheetId="1" r:id="rId1"/>
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B7D9BC-218D-F84A-BC35-66E4739E78CA}">
   <dimension ref="C4:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EC5C4B-1855-F443-91B7-3FD86D606C3D}">
   <dimension ref="C4:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
